--- a/assets/translations/Polish.Poland.pl-PL.xlsx
+++ b/assets/translations/Polish.Poland.pl-PL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irena Fryc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irena Fryc\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7F34B3E-6248-49D1-8B9A-94B5FE25B88D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6846EBA0-7940-4ADF-B294-0CC18C1525FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contributors" sheetId="2" r:id="rId1"/>
@@ -406,9 +406,6 @@
     <t>Ekspozycja na światło wpływa na sen, wydzielanie hormonów, metabolizm oraz poziom czujności.</t>
   </si>
   <si>
-    <t>Poranne światło sprzyja wcześniejszemu zasypianiu i budzeniu się, natomiast światło wieczorne może opóźniać porę snu i przebudzenia.</t>
-  </si>
-  <si>
     <t>Światło sygnalizuje mózgowi aktywność. Poranne światło przyspiesza wewnętrzny zegar organizmu (przesuwając go na wcześniejszą porę), natomiast światło wieczorne go opóźnia (przesuwając na późniejszą porę).</t>
   </si>
   <si>
@@ -553,9 +550,6 @@
     <t>Fizjologiczne oddziaływanie światła stanowi obszar intensywnych badań naukowych.</t>
   </si>
   <si>
-    <t>Naukowcy prowadzą dalsze badania dotyczące wpływu światła na procesy fizjologiczne i zdrowie.</t>
-  </si>
-  <si>
     <t>Zarówno w środowisku naukowym, jak i społecznym rośnie zainteresowanie wpływem światła na rytmy biologiczne, sen, czujność, nastrój i zdrowie. Postęp technologiczny i naukowy umożliwia badaczom coraz dokładniejszą analizę wpływu różnych długości fal i poziomów natężenia oświetlenia.</t>
   </si>
   <si>
@@ -575,9 +569,6 @@
   </si>
   <si>
     <t>i.fryc@pb.edu.pl</t>
-  </si>
-  <si>
-    <t>Ekspozycję na światło można opisać za pomocą jego natężenia: całkowitej ilości energii dla wszystkich długości fal od 380 do 780 nm, ważonej według interesującej nas funkcji.</t>
   </si>
   <si>
     <t>Właściwości światła dziennego (rozkład widmowy, natężenie promieniowania i azymutalną i zenitalną egzytancję widmową) zmieniają się w ciągu dnia i roku oraz wraz ze zmianami pogody.</t>
@@ -677,6 +668,15 @@
   <si>
     <t>Evening light exposure tells the body it is still daytime. This increases alertness and shifts the internal clock to a later time.</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ekspozycję na światło można opisać za pomocą natężenia napromienienia: całkowitej ilości energii dla wszystkich długości fal od 380 do 780 nm, ważonej według interesującej nas funkcji.</t>
+  </si>
+  <si>
+    <t>Poranne światło sprzyja wcześniejszemu budzeniu się, natomiast światło wieczorne może opóźniać porę snu i przebudzenia.</t>
+  </si>
+  <si>
+    <t>Naukowcy prowadzą badania dotyczące wpływu światła na procesy fizjologiczne i zdrowie.</t>
   </si>
 </sst>
 </file>
@@ -1447,10 +1447,10 @@
         <v>82</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>83</v>
@@ -1565,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.6"/>
@@ -1647,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>105</v>
@@ -1676,22 +1676,22 @@
         <v>3</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>108</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="90">
@@ -1705,19 +1705,19 @@
         <v>4</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>109</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>110</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>111</v>
@@ -1740,16 +1740,16 @@
         <v>112</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>113</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="75">
@@ -1766,16 +1766,16 @@
         <v>9</v>
       </c>
       <c r="E7" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>179</v>
-      </c>
       <c r="H7" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>114</v>
@@ -1795,19 +1795,19 @@
         <v>61</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8" s="20" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>100</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="90">
@@ -1821,22 +1821,22 @@
         <v>8</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E9" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>130</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>131</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="75">
@@ -1853,19 +1853,19 @@
         <v>12</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60">
@@ -1882,7 +1882,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>16</v>
@@ -1917,13 +1917,13 @@
         <v>19</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="60">
@@ -1940,19 +1940,19 @@
         <v>21</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="60">
@@ -1966,16 +1966,16 @@
         <v>13</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>25</v>
@@ -1998,19 +1998,19 @@
         <v>26</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F15" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="60">
@@ -2027,19 +2027,19 @@
         <v>29</v>
       </c>
       <c r="E16" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="21" t="s">
+      <c r="H16" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I16" s="22" t="s">
         <v>121</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="60">
@@ -2056,19 +2056,19 @@
         <v>30</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F17" s="20" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>32</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="60">
@@ -2085,19 +2085,19 @@
         <v>33</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="75">
@@ -2114,19 +2114,19 @@
         <v>35</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>37</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="60">
@@ -2143,19 +2143,19 @@
         <v>38</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>40</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="75">
@@ -2169,22 +2169,22 @@
         <v>20</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>42</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="60">
@@ -2198,22 +2198,22 @@
         <v>21</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>43</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>44</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="60">
@@ -2230,19 +2230,19 @@
         <v>45</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>46</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>47</v>
       </c>
       <c r="I23" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="46.8">
@@ -2259,19 +2259,19 @@
         <v>48</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F24" s="20" t="s">
         <v>49</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>50</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="46.8">
@@ -2288,19 +2288,19 @@
         <v>51</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>52</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>53</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="105">
@@ -2317,19 +2317,19 @@
         <v>54</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>55</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>56</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="120.6" thickBot="1">
@@ -2346,19 +2346,19 @@
         <v>57</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>58</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>59</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2394,7 +2394,7 @@
         <v>76</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="62.4">
@@ -2402,7 +2402,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="79.2">
@@ -2410,7 +2410,7 @@
         <v>78</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="79.2">
@@ -2418,7 +2418,7 @@
         <v>79</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="79.2">
@@ -2426,7 +2426,7 @@
         <v>80</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
